--- a/data/georgia_census/shida-qartli/kaspi/education_graduates.xlsx
+++ b/data/georgia_census/shida-qartli/kaspi/education_graduates.xlsx
@@ -1837,13 +1837,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1B49730-1090-4A06-80D9-22063FBC2258}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AD5AF8-5B29-4DC8-A3E8-5E2B29513B28}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C8574B-51B0-4D82-95F5-EA98C608D695}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32907966-B6D1-4FD6-ADA5-46A43908D658}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC762540-CFCD-4FBF-9897-A98829860852}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77726C13-46B7-4FDA-A3CC-C0417415CF88}"/>
 </file>